--- a/Final Result/0616.xlsx
+++ b/Final Result/0616.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/Documents/NCKU_DS/113-2_Research/Final Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5262826-A703-924D-A1DF-A45152EEA941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D53163C-2481-234E-A65A-1BDFB10D233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{1EC4C192-182E-F749-9F84-7FA4B603F312}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure-only Core Subgraph" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="39">
   <si>
     <t>Method</t>
   </si>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>Random Feature</t>
+  </si>
+  <si>
+    <t>Facebook
+ (cont.)</t>
+  </si>
+  <si>
+    <t>GitHub
+ (con.)</t>
+  </si>
+  <si>
+    <t>GitHub
+ (cont.)</t>
+  </si>
+  <si>
+    <t>Facebook
+ (contt.)</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD3DA2-AFDD-A94B-906F-D74F5151AC29}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53:G55"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2239,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F743D4C-E85F-EF45-ABB1-D1AF09A7D54B}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3018,7 +3034,7 @@
       <c r="H37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="58">
         <v>0.8378181818181818</v>
       </c>
     </row>
@@ -3037,7 +3053,7 @@
       <c r="H38" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="58">
         <v>0.84218181818181814</v>
       </c>
     </row>
@@ -3056,7 +3072,7 @@
       <c r="H39" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="58">
         <v>0.85745454545454547</v>
       </c>
     </row>
@@ -3153,7 +3169,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>7</v>
@@ -3434,7 +3450,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>7</v>
@@ -3511,7 +3527,7 @@
       <c r="H62" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="57">
+      <c r="I62" s="58">
         <v>0.82122015915119362</v>
       </c>
     </row>
@@ -3532,7 +3548,7 @@
       <c r="H63" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="57">
+      <c r="I63" s="58">
         <v>0.82652519893899201</v>
       </c>
     </row>
@@ -3553,7 +3569,7 @@
       <c r="H64" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="57">
+      <c r="I64" s="58">
         <v>0.82334217506631302</v>
       </c>
     </row>
@@ -3758,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C3A3C-90F9-3641-9386-0565683637CB}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="145" workbookViewId="0">
-      <selection activeCell="I50" sqref="I48:I50"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4537,7 +4553,7 @@
       <c r="H37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="58">
         <v>0.85963636363636364</v>
       </c>
     </row>
@@ -4556,7 +4572,7 @@
       <c r="H38" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="58">
         <v>0.8378181818181818</v>
       </c>
     </row>
@@ -4575,7 +4591,7 @@
       <c r="H39" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="58">
         <v>0.82545454545454544</v>
       </c>
     </row>
@@ -4672,7 +4688,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>7</v>
@@ -4953,7 +4969,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>7</v>
@@ -5277,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A5C5F8-3311-604C-9DB4-AD5D59E03971}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
@@ -6291,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08995C9B-CBA6-584B-BBF1-08ADB4BFAD5C}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A30" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6927,7 +6943,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>7</v>
@@ -7120,7 +7136,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>7</v>
